--- a/src/test/resources/サーバチェックシート.xlsx
+++ b/src/test/resources/サーバチェックシート.xlsx
@@ -21,10 +21,10 @@
   <calcPr iterateDelta="0.0001"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1599131879" val="976" rev="124" revOS="4" revMin="124" revMax="0"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1599131879" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1599131879" overlapCells="1"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1599131879"/>
+      <pm:revision xmlns:pm="smNativeData" day="1599548320" val="976" rev="124" revOS="4" revMin="124" revMax="0"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1599548320" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1599548320" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1599548320"/>
     </ext>
   </extLst>
 </workbook>
@@ -462,7 +462,7 @@
     <t>{LocalFile}</t>
   </si>
   <si>
-    <t>esxi100</t>
+    <t>esxi.ostrich</t>
   </si>
   <si>
     <t>VMHost</t>
@@ -1989,7 +1989,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1599131879" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1599548320" ulstyle="none" kern="1">
             <pm:latin face="ＭＳ Ｐゴシック" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -2004,7 +2004,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1599131879" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1599548320" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -2020,7 +2020,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1599131879" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1599548320" ulstyle="none" kern="1">
             <pm:latin face="ＭＳ Ｐゴシック" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -2036,7 +2036,7 @@
       <sz val="9"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1599131879" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1599548320" ulstyle="none" kern="1">
             <pm:latin face="ＭＳ ゴシック" sz="180" lang="default"/>
             <pm:cs face="Times New Roman" sz="180" lang="default"/>
             <pm:ea face="SimSun" sz="180" lang="default"/>
@@ -2053,7 +2053,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1599131879" fgClr="3F3F3F" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1599548320" fgClr="3F3F3F" ulstyle="none" kern="1">
             <pm:latin face="ＭＳ Ｐゴシック" sz="220" lang="default" weight="bold"/>
             <pm:cs face="Times New Roman" sz="220" lang="default" weight="bold"/>
             <pm:ea face="SimSun" sz="220" lang="default" weight="bold"/>
@@ -2069,7 +2069,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1599131879" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1599548320" ulstyle="none" kern="1">
             <pm:latin face="ＭＳ ゴシック" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -2085,7 +2085,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1599131879" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1599548320" ulstyle="none" kern="1">
             <pm:latin face="Meiryo UI" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -2094,7 +2094,7 @@
       </extLst>
     </font>
   </fonts>
-  <fills count="24">
+  <fills count="25">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2107,7 +2107,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1599131879" type="1" fgLvl="100" fgClr="00F2F2F2" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1599548320" type="1" fgLvl="100" fgClr="00F2F2F2" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2118,7 +2118,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1599131879" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00F2F2F2"/>
+            <pm:shade xmlns:pm="smNativeData" id="1599548320" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00F2F2F2"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2129,7 +2129,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1599131879" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00F2F2F2"/>
+            <pm:shade xmlns:pm="smNativeData" id="1599548320" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00F2F2F2"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2140,7 +2140,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1599131879" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00F2F2F2"/>
+            <pm:shade xmlns:pm="smNativeData" id="1599548320" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00F2F2F2"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2151,7 +2151,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1599131879" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00F2F2F2"/>
+            <pm:shade xmlns:pm="smNativeData" id="1599548320" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00F2F2F2"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2162,7 +2162,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1599131879" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00F2F2F2"/>
+            <pm:shade xmlns:pm="smNativeData" id="1599548320" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00F2F2F2"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2173,7 +2173,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1599131879" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00F2F2F2"/>
+            <pm:shade xmlns:pm="smNativeData" id="1599548320" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00F2F2F2"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2184,7 +2184,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1599131879" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00F2F2F2"/>
+            <pm:shade xmlns:pm="smNativeData" id="1599548320" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00F2F2F2"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2195,7 +2195,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1599131879" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00F2F2F2"/>
+            <pm:shade xmlns:pm="smNativeData" id="1599548320" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00F2F2F2"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2206,7 +2206,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1599131879" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00F2F2F2"/>
+            <pm:shade xmlns:pm="smNativeData" id="1599548320" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00F2F2F2"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2217,7 +2217,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1599131879" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00F2F2F2"/>
+            <pm:shade xmlns:pm="smNativeData" id="1599548320" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00F2F2F2"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2228,7 +2228,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1599131879" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00F2F2F2"/>
+            <pm:shade xmlns:pm="smNativeData" id="1599548320" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00F2F2F2"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2239,7 +2239,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1599131879" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00F2F2F2"/>
+            <pm:shade xmlns:pm="smNativeData" id="1599548320" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00F2F2F2"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2250,7 +2250,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1599131879" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00F2F2F2"/>
+            <pm:shade xmlns:pm="smNativeData" id="1599548320" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00F2F2F2"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2261,7 +2261,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1599131879" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00F2F2F2"/>
+            <pm:shade xmlns:pm="smNativeData" id="1599548320" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00F2F2F2"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2272,7 +2272,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1599131879" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00F2F2F2"/>
+            <pm:shade xmlns:pm="smNativeData" id="1599548320" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00F2F2F2"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2283,7 +2283,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1599131879" type="1" fgLvl="100" fgClr="00CCFFFF" bgLvl="0" bgClr="00CCFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1599548320" type="1" fgLvl="100" fgClr="00CCFFFF" bgLvl="0" bgClr="00CCFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2294,7 +2294,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1599131879" type="1" fgLvl="100" fgClr="00CCFFFF" bgLvl="0" bgClr="00CCFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1599548320" type="1" fgLvl="100" fgClr="00CCFFFF" bgLvl="0" bgClr="00CCFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2311,8 +2311,19 @@
     <fill>
       <patternFill patternType="none"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:shade xmlns:pm="smNativeData" id="1599548320" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
+          </ext>
+        </extLst>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="23">
+  <borders count="24">
     <border>
       <left style="none">
         <color rgb="FF000000"/>
@@ -2328,7 +2339,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1599131879"/>
+          <pm:border xmlns:pm="smNativeData" id="1599548320"/>
         </ext>
       </extLst>
     </border>
@@ -2347,7 +2358,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1599131879">
+          <pm:border xmlns:pm="smNativeData" id="1599548320">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="3F3F3F"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="3F3F3F"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="3F3F3F"/>
@@ -2371,7 +2382,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1599131879"/>
+          <pm:border xmlns:pm="smNativeData" id="1599548320"/>
         </ext>
       </extLst>
     </border>
@@ -2390,7 +2401,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1599131879">
+          <pm:border xmlns:pm="smNativeData" id="1599548320">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -2412,7 +2423,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1599131879">
+          <pm:border xmlns:pm="smNativeData" id="1599548320">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -2433,7 +2444,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1599131879">
+          <pm:border xmlns:pm="smNativeData" id="1599548320">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -2455,7 +2466,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1599131879">
+          <pm:border xmlns:pm="smNativeData" id="1599548320">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -2477,7 +2488,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1599131879">
+          <pm:border xmlns:pm="smNativeData" id="1599548320">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -2498,7 +2509,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1599131879">
+          <pm:border xmlns:pm="smNativeData" id="1599548320">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -2520,7 +2531,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1599131879">
+          <pm:border xmlns:pm="smNativeData" id="1599548320">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -2544,7 +2555,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1599131879">
+          <pm:border xmlns:pm="smNativeData" id="1599548320">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="2" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -2568,7 +2579,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1599131879">
+          <pm:border xmlns:pm="smNativeData" id="1599548320">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -2591,7 +2602,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1599131879">
+          <pm:border xmlns:pm="smNativeData" id="1599548320">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -2614,7 +2625,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1599131879">
+          <pm:border xmlns:pm="smNativeData" id="1599548320">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -2636,7 +2647,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1599131879">
+          <pm:border xmlns:pm="smNativeData" id="1599548320">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -2659,7 +2670,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1599131879">
+          <pm:border xmlns:pm="smNativeData" id="1599548320">
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -2680,7 +2691,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1599131879">
+          <pm:border xmlns:pm="smNativeData" id="1599548320">
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -2701,7 +2712,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1599131879">
+          <pm:border xmlns:pm="smNativeData" id="1599548320">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -2725,7 +2736,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1599131879">
+          <pm:border xmlns:pm="smNativeData" id="1599548320">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="2" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -2749,7 +2760,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1599131879">
+          <pm:border xmlns:pm="smNativeData" id="1599548320">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -2772,7 +2783,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1599131879">
+          <pm:border xmlns:pm="smNativeData" id="1599548320">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -2796,7 +2807,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1599131879">
+          <pm:border xmlns:pm="smNativeData" id="1599548320">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -2819,9 +2830,28 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1599131879">
+          <pm:border xmlns:pm="smNativeData" id="1599548320">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
+        </ext>
+      </extLst>
+    </border>
+    <border>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1599548320"/>
         </ext>
       </extLst>
     </border>
@@ -3008,10 +3038,10 @@
   <tableStyles count="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1599131879" count="1">
+      <pm:charStyles xmlns:pm="smNativeData" id="1599548320" count="1">
         <pm:charStyle name="標準" fontId="0" Id="1"/>
       </pm:charStyles>
-      <pm:colors xmlns:pm="smNativeData" id="1599131879" count="4">
+      <pm:colors xmlns:pm="smNativeData" id="1599548320" count="4">
         <pm:color name="色 24" rgb="3F3F3F"/>
         <pm:color name="色 25" rgb="F2F2F2"/>
         <pm:color name="色 26" rgb="CCFFFF"/>
@@ -6251,7 +6281,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1599131879" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1599548320" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -6262,16 +6292,16 @@
     <oddFooter>&amp;C&amp;"Times New Roman"&amp;12ページ &amp;P</oddFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1599131879" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1599131879" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1599131879" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1599131879" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1599548320" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1599548320" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1599548320" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1599548320" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1599131879" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1599548320" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -6285,7 +6315,7 @@
   <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView tabSelected="1" view="normal" zoomScale="105" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13"/>
@@ -6726,7 +6756,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1599131879" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1599548320" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -6737,16 +6767,16 @@
     <oddFooter>&amp;C&amp;"Times New Roman"&amp;12ページ &amp;P</oddFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1599131879" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1599131879" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1599131879" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1599131879" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1599548320" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1599548320" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1599548320" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1599548320" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1599131879" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1599548320" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -7780,7 +7810,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1599131879" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1599548320" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -7789,16 +7819,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1599131879" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1599131879" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1599131879" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1599131879" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1599548320" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1599548320" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1599548320" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1599548320" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1599131879" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1599548320" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -7887,7 +7917,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1599131879" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1599548320" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -7896,16 +7926,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1599131879" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1599131879" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1599131879" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1599131879" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1599548320" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1599548320" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1599548320" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1599548320" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1599131879" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1599548320" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -9674,7 +9704,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1599131879" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1599548320" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -9685,16 +9715,16 @@
     <oddFooter>&amp;C&amp;"Times New Roman"&amp;12ページ &amp;P</oddFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1599131879" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1599131879" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1599131879" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1599131879" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1599548320" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1599548320" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1599548320" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1599548320" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1599131879" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1599548320" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -11440,7 +11470,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1599131879" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1599548320" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -11451,16 +11481,16 @@
     <oddFooter>&amp;C&amp;"Times New Roman"&amp;12ページ &amp;P</oddFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1599131879" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1599131879" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1599131879" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1599131879" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1599548320" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1599548320" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1599548320" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1599548320" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1599131879" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1599548320" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
